--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACD/15/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACD/15/seed2/result_data_KNN.xlsx
@@ -468,7 +468,7 @@
         <v>10.48</v>
       </c>
       <c r="C2" t="n">
-        <v>-12.688</v>
+        <v>-12.294</v>
       </c>
       <c r="D2" t="n">
         <v>-7.6</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.802</v>
+        <v>-21.789</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.924000000000001</v>
+        <v>-7.771000000000001</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.530000000000001</v>
+        <v>-7.192</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.67</v>
+        <v>-21.713</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-19.788</v>
+        <v>-20.21</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.566</v>
+        <v>-20.157</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -845,7 +845,7 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.462000000000001</v>
+        <v>-7.652000000000001</v>
       </c>
       <c r="E24" t="n">
         <v>16.37</v>
@@ -853,16 +853,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.588</v>
+        <v>-21.894</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-13.482</v>
+        <v>-12.819</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.562000000000001</v>
+        <v>-8.715</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.574</v>
+        <v>-21.351</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.964</v>
+        <v>-13.055</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.532</v>
+        <v>-21.284</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.704</v>
+        <v>-13.016</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -1097,7 +1097,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.514</v>
+        <v>-12.847</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -1250,7 +1250,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-10.792</v>
+        <v>-11.575</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1287,7 +1287,7 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.290000000000001</v>
+        <v>-7.919999999999999</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-12.02</v>
+        <v>-11.564</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.284</v>
+        <v>-11.439</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.74</v>
+        <v>-21.924</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1338,7 +1338,7 @@
         <v>-12.98</v>
       </c>
       <c r="D53" t="n">
-        <v>-6.725999999999999</v>
+        <v>-7.342000000000001</v>
       </c>
       <c r="E53" t="n">
         <v>18.53</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.896</v>
+        <v>-13.736</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1386,7 +1386,7 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-12.088</v>
+        <v>-12.753</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.874</v>
+        <v>-22.165</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-12.814</v>
+        <v>-12.648</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.81</v>
+        <v>-8.894</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.65</v>
+        <v>-22.358</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1474,7 +1474,7 @@
         <v>-11.89</v>
       </c>
       <c r="D61" t="n">
-        <v>-7.847999999999999</v>
+        <v>-7.708</v>
       </c>
       <c r="E61" t="n">
         <v>16.69</v>
@@ -1508,7 +1508,7 @@
         <v>-9.970000000000001</v>
       </c>
       <c r="D63" t="n">
-        <v>-7.524000000000001</v>
+        <v>-7.522</v>
       </c>
       <c r="E63" t="n">
         <v>16.71</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.718</v>
+        <v>-21.68</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1627,7 +1627,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.19</v>
+        <v>-7.343000000000001</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-13.176</v>
+        <v>-12.763</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.746</v>
+        <v>-20.849</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.886</v>
+        <v>-21.938</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1899,7 +1899,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.290000000000001</v>
+        <v>-8.065000000000001</v>
       </c>
       <c r="E86" t="n">
         <v>17.03</v>
@@ -1947,7 +1947,7 @@
         <v>4.69</v>
       </c>
       <c r="C89" t="n">
-        <v>-11.016</v>
+        <v>-10.946</v>
       </c>
       <c r="D89" t="n">
         <v>-7</v>
@@ -1964,7 +1964,7 @@
         <v>7.49</v>
       </c>
       <c r="C90" t="n">
-        <v>-13.142</v>
+        <v>-12.482</v>
       </c>
       <c r="D90" t="n">
         <v>-8.890000000000001</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.516</v>
+        <v>-21.509</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.452</v>
+        <v>-11.231</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-22.028</v>
+        <v>-21.366</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2103,7 +2103,7 @@
         <v>-13.95</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.931999999999999</v>
+        <v>-8.486000000000001</v>
       </c>
       <c r="E98" t="n">
         <v>15.27</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.680000000000001</v>
+        <v>-8.409000000000001</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.657999999999999</v>
+        <v>-7.794000000000001</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
